--- a/ui/datapenduduk/TEMPLATE_DATA_PENDUDUK.xlsx
+++ b/ui/datapenduduk/TEMPLATE_DATA_PENDUDUK.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+  <si>
+    <t>no</t>
+  </si>
   <si>
     <t>nama</t>
   </si>
@@ -70,12 +73,15 @@
     <t>nama ibu</t>
   </si>
   <si>
-    <t>coba</t>
+    <t>Coba 1</t>
   </si>
   <si>
     <t>LAKI-LAKI</t>
   </si>
   <si>
+    <t>2020/10/16</t>
+  </si>
+  <si>
     <t>pwt</t>
   </si>
   <si>
@@ -106,22 +112,22 @@
     <t>IBu</t>
   </si>
   <si>
-    <t>cobaan</t>
+    <t>Coba 2</t>
   </si>
   <si>
     <t>5345t7347</t>
   </si>
   <si>
     <t>PEREMPUAN</t>
+  </si>
+  <si>
+    <t>2020/05/16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -158,7 +164,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -378,73 +384,73 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>123456.0</v>
@@ -453,19 +459,19 @@
         <v>1.23456646E8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44120.0</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="2">
         <v>21.0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2">
         <v>4.0</v>
@@ -474,31 +480,31 @@
         <v>5.0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -506,28 +512,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>5.6352463E7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44121.0</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>21.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2">
         <v>4.0</v>
@@ -536,31 +542,31 @@
         <v>5.0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
